--- a/Data/Weather_Data_NEA/Stns Metadata.xlsx
+++ b/Data/Weather_Data_NEA/Stns Metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shunansheng/Documents/WarpedGaussianProcessDoc/Dataset/Weather Data_NEA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shunansheng/Documents/WarpedGaussianProcess/Data/Weather_Data_NEA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA83AE4-559E-8049-96E3-B9EEBCC7488C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB738D9-AD4C-CC4C-B9DF-10886CAAFBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="500" windowWidth="15320" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -765,235 +765,235 @@
     <t>1°23.1'</t>
   </si>
   <si>
+    <t>S25</t>
+  </si>
+  <si>
+    <t>Seletar Met. Stn</t>
+  </si>
+  <si>
+    <t>1°25.0'</t>
+  </si>
+  <si>
+    <t>103°51.9'</t>
+  </si>
+  <si>
+    <t>S80</t>
+  </si>
+  <si>
+    <t>Sembawang Met. Stn</t>
+  </si>
+  <si>
+    <t>1°25.5'</t>
+  </si>
+  <si>
+    <t>103°49.2'</t>
+  </si>
+  <si>
+    <t>Mandai Lake Road</t>
+  </si>
+  <si>
+    <t>1°24.266'</t>
+  </si>
+  <si>
+    <t>103°47.377'</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>S76</t>
+  </si>
+  <si>
+    <t>S56</t>
+  </si>
+  <si>
+    <t>Sungei Gedong Road</t>
+  </si>
+  <si>
+    <t>1°25.2'</t>
+  </si>
+  <si>
+    <t>103°41.8'</t>
+  </si>
+  <si>
+    <t>1°27.7'</t>
+  </si>
+  <si>
+    <t>103°47.6'</t>
+  </si>
+  <si>
+    <t>S51</t>
+  </si>
+  <si>
+    <t>Kranji Turf Club</t>
+  </si>
+  <si>
+    <t>103°45.7'</t>
+  </si>
+  <si>
+    <t>S85</t>
+  </si>
+  <si>
+    <t>Jurong Island Fire Station</t>
+  </si>
+  <si>
+    <t>1°16.3'</t>
+  </si>
+  <si>
+    <t>103°42.5'</t>
+  </si>
+  <si>
+    <t>CHIJ(Katong) Pri Sch</t>
+  </si>
+  <si>
+    <t>No data on Dec 2016.</t>
+  </si>
+  <si>
+    <t>Rad started in 14/1/2011. Net Rad &amp; Temp was downed since 23/11/2017. Wind down since Sep 2018</t>
+  </si>
+  <si>
+    <t>Rad sensors are faulty since 11/12/2017. Pressure sensor is faulty since 1/1/2018</t>
+  </si>
+  <si>
+    <t>Closed on Jan 2016</t>
+  </si>
+  <si>
+    <t>Data Start date</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>Aug 2010</t>
+  </si>
+  <si>
+    <t>Oct 2010</t>
+  </si>
+  <si>
+    <t>Nov 2010</t>
+  </si>
+  <si>
+    <t>Apr 2011</t>
+  </si>
+  <si>
+    <t>Sep 2011</t>
+  </si>
+  <si>
+    <t>Oct 2011</t>
+  </si>
+  <si>
+    <t>No data from Nov 2013 to Feb 2014</t>
+  </si>
+  <si>
+    <t>No data from 12/8/2016 to 30/11/2016 &amp; Jul 2017</t>
+  </si>
+  <si>
+    <t>No data from 31/10/2013 to 5/3/2014</t>
+  </si>
+  <si>
+    <t>No data from Jan 2011 to Jan 2013</t>
+  </si>
+  <si>
+    <t>No data from 25/6/2014 to 27/1/2015</t>
+  </si>
+  <si>
+    <t>Closed on Oct 2014</t>
+  </si>
+  <si>
+    <t>Closed on Dec 2015</t>
+  </si>
+  <si>
+    <t>Closed on Nov 2016</t>
+  </si>
+  <si>
+    <t>Closed on Feb 2016</t>
+  </si>
+  <si>
+    <t>No data from Oct 2016 to Mar 2018</t>
+  </si>
+  <si>
+    <t>No data from Nov 2015-Nov 2016</t>
+  </si>
+  <si>
+    <t>Closed on May 2017</t>
+  </si>
+  <si>
+    <t>Closed on Jan 2018</t>
+  </si>
+  <si>
+    <t>Closed on Jan 2019</t>
+  </si>
+  <si>
+    <t>Closed on Mar 2019</t>
+  </si>
+  <si>
+    <t>Closed on Apr 2010</t>
+  </si>
+  <si>
+    <t>Closed on Jan 2012</t>
+  </si>
+  <si>
+    <t>Closed on Nov 2009</t>
+  </si>
+  <si>
+    <t>Jan 2010</t>
+  </si>
+  <si>
+    <t>Mar 2010</t>
+  </si>
+  <si>
+    <t>Jul 2009</t>
+  </si>
+  <si>
+    <t>Dec 2009</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>ground</t>
+  </si>
+  <si>
+    <t>roof top</t>
+  </si>
+  <si>
+    <t>Temp at Roof top. Wind at ground</t>
+  </si>
+  <si>
+    <t>Temp at Roof top from 14/11/2011 to 2/9/2018</t>
+  </si>
+  <si>
+    <t>Elevation (m)</t>
+  </si>
+  <si>
+    <t>Closed on Jan 2011</t>
+  </si>
+  <si>
+    <t>Mast height (m)</t>
+  </si>
+  <si>
+    <t>Stn Closed</t>
+  </si>
+  <si>
+    <t>S47</t>
+  </si>
+  <si>
+    <t>Yio Chu Kang Road</t>
+  </si>
+  <si>
+    <t>1°23.6'</t>
+  </si>
+  <si>
+    <t>103°51.6'</t>
+  </si>
+  <si>
+    <t>Senoko Incinerator</t>
+  </si>
+  <si>
+    <t>Stn with Wind &amp; Temp (S44,50,104,111-No pressure sensor)</t>
+  </si>
+  <si>
     <t>103°42.7'</t>
-  </si>
-  <si>
-    <t>S25</t>
-  </si>
-  <si>
-    <t>Seletar Met. Stn</t>
-  </si>
-  <si>
-    <t>1°25.0'</t>
-  </si>
-  <si>
-    <t>103°51.9'</t>
-  </si>
-  <si>
-    <t>S80</t>
-  </si>
-  <si>
-    <t>Sembawang Met. Stn</t>
-  </si>
-  <si>
-    <t>1°25.5'</t>
-  </si>
-  <si>
-    <t>103°49.2'</t>
-  </si>
-  <si>
-    <t>Mandai Lake Road</t>
-  </si>
-  <si>
-    <t>1°24.266'</t>
-  </si>
-  <si>
-    <t>103°47.377'</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>S76</t>
-  </si>
-  <si>
-    <t>S56</t>
-  </si>
-  <si>
-    <t>Sungei Gedong Road</t>
-  </si>
-  <si>
-    <t>1°25.2'</t>
-  </si>
-  <si>
-    <t>103°41.8'</t>
-  </si>
-  <si>
-    <t>1°27.7'</t>
-  </si>
-  <si>
-    <t>103°47.6'</t>
-  </si>
-  <si>
-    <t>S51</t>
-  </si>
-  <si>
-    <t>Kranji Turf Club</t>
-  </si>
-  <si>
-    <t>103°45.7'</t>
-  </si>
-  <si>
-    <t>S85</t>
-  </si>
-  <si>
-    <t>Jurong Island Fire Station</t>
-  </si>
-  <si>
-    <t>1°16.3'</t>
-  </si>
-  <si>
-    <t>103°42.5'</t>
-  </si>
-  <si>
-    <t>CHIJ(Katong) Pri Sch</t>
-  </si>
-  <si>
-    <t>No data on Dec 2016.</t>
-  </si>
-  <si>
-    <t>Rad started in 14/1/2011. Net Rad &amp; Temp was downed since 23/11/2017. Wind down since Sep 2018</t>
-  </si>
-  <si>
-    <t>Rad sensors are faulty since 11/12/2017. Pressure sensor is faulty since 1/1/2018</t>
-  </si>
-  <si>
-    <t>Closed on Jan 2016</t>
-  </si>
-  <si>
-    <t>Data Start date</t>
-  </si>
-  <si>
-    <t>May 2010</t>
-  </si>
-  <si>
-    <t>Aug 2010</t>
-  </si>
-  <si>
-    <t>Oct 2010</t>
-  </si>
-  <si>
-    <t>Nov 2010</t>
-  </si>
-  <si>
-    <t>Apr 2011</t>
-  </si>
-  <si>
-    <t>Sep 2011</t>
-  </si>
-  <si>
-    <t>Oct 2011</t>
-  </si>
-  <si>
-    <t>No data from Nov 2013 to Feb 2014</t>
-  </si>
-  <si>
-    <t>No data from 12/8/2016 to 30/11/2016 &amp; Jul 2017</t>
-  </si>
-  <si>
-    <t>No data from 31/10/2013 to 5/3/2014</t>
-  </si>
-  <si>
-    <t>No data from Jan 2011 to Jan 2013</t>
-  </si>
-  <si>
-    <t>No data from 25/6/2014 to 27/1/2015</t>
-  </si>
-  <si>
-    <t>Closed on Oct 2014</t>
-  </si>
-  <si>
-    <t>Closed on Dec 2015</t>
-  </si>
-  <si>
-    <t>Closed on Nov 2016</t>
-  </si>
-  <si>
-    <t>Closed on Feb 2016</t>
-  </si>
-  <si>
-    <t>No data from Oct 2016 to Mar 2018</t>
-  </si>
-  <si>
-    <t>No data from Nov 2015-Nov 2016</t>
-  </si>
-  <si>
-    <t>Closed on May 2017</t>
-  </si>
-  <si>
-    <t>Closed on Jan 2018</t>
-  </si>
-  <si>
-    <t>Closed on Jan 2019</t>
-  </si>
-  <si>
-    <t>Closed on Mar 2019</t>
-  </si>
-  <si>
-    <t>Closed on Apr 2010</t>
-  </si>
-  <si>
-    <t>Closed on Jan 2012</t>
-  </si>
-  <si>
-    <t>Closed on Nov 2009</t>
-  </si>
-  <si>
-    <t>Jan 2010</t>
-  </si>
-  <si>
-    <t>Mar 2010</t>
-  </si>
-  <si>
-    <t>Jul 2009</t>
-  </si>
-  <si>
-    <t>Dec 2009</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>ground</t>
-  </si>
-  <si>
-    <t>roof top</t>
-  </si>
-  <si>
-    <t>Temp at Roof top. Wind at ground</t>
-  </si>
-  <si>
-    <t>Temp at Roof top from 14/11/2011 to 2/9/2018</t>
-  </si>
-  <si>
-    <t>Elevation (m)</t>
-  </si>
-  <si>
-    <t>Closed on Jan 2011</t>
-  </si>
-  <si>
-    <t>Mast height (m)</t>
-  </si>
-  <si>
-    <t>Stn Closed</t>
-  </si>
-  <si>
-    <t>S47</t>
-  </si>
-  <si>
-    <t>Yio Chu Kang Road</t>
-  </si>
-  <si>
-    <t>1°23.6'</t>
-  </si>
-  <si>
-    <t>103°51.6'</t>
-  </si>
-  <si>
-    <t>Senoko Incinerator</t>
-  </si>
-  <si>
-    <t>Stn with Wind &amp; Temp (S44,50,104,111-No pressure sensor)</t>
   </si>
 </sst>
 </file>
@@ -1011,6 +1011,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1025,6 +1026,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2634,7 +2636,7 @@
   <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2667,19 +2669,19 @@
         <v>0</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14" x14ac:dyDescent="0.15">
@@ -2699,7 +2701,7 @@
         <v>115</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G2" s="18">
         <v>16</v>
@@ -2726,7 +2728,7 @@
         <v>116</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G3" s="18">
         <v>25</v>
@@ -2751,14 +2753,14 @@
         <v>117</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G4" s="18">
         <v>9</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2778,7 +2780,7 @@
         <v>118</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G5" s="18">
         <v>22</v>
@@ -2803,7 +2805,7 @@
         <v>118</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G6" s="18">
         <v>17</v>
@@ -2827,10 +2829,10 @@
         <v>245</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>246</v>
+        <v>322</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G7" s="18">
         <v>15</v>
@@ -2845,19 +2847,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="D8" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="E8" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>250</v>
-      </c>
       <c r="F8" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G8" s="18">
         <v>17</v>
@@ -2867,7 +2869,7 @@
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -2887,7 +2889,7 @@
         <v>119</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G9" s="18">
         <v>10</v>
@@ -2914,7 +2916,7 @@
         <v>120</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G10" s="18">
         <v>35</v>
@@ -2922,7 +2924,7 @@
       <c r="H10" s="18"/>
       <c r="I10" s="17"/>
       <c r="J10" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -2942,7 +2944,7 @@
         <v>121</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G11" s="18">
         <v>6</v>
@@ -2967,7 +2969,7 @@
         <v>122</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G12" s="18">
         <v>13</v>
@@ -2992,7 +2994,7 @@
         <v>123</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G13" s="18">
         <v>9</v>
@@ -3017,7 +3019,7 @@
         <v>124</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G14" s="18">
         <v>10</v>
@@ -3025,7 +3027,7 @@
       <c r="H14" s="18"/>
       <c r="I14" s="17"/>
       <c r="J14" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -3036,16 +3038,16 @@
         <v>38</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>257</v>
-      </c>
       <c r="F15" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G15" s="18">
         <v>38</v>
@@ -3053,7 +3055,7 @@
       <c r="H15" s="18"/>
       <c r="I15" s="17"/>
       <c r="J15" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -3073,7 +3075,7 @@
         <v>125</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G16" s="18">
         <v>36</v>
@@ -3100,7 +3102,7 @@
         <v>126</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G17" s="18">
         <v>30</v>
@@ -3110,7 +3112,7 @@
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
@@ -3130,7 +3132,7 @@
         <v>127</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G18" s="18">
         <v>34</v>
@@ -3143,19 +3145,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="D19" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="E19" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>320</v>
-      </c>
       <c r="F19" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G19" s="18">
         <v>23</v>
@@ -3163,7 +3165,7 @@
       <c r="H19" s="18"/>
       <c r="I19" s="17"/>
       <c r="J19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
@@ -3183,7 +3185,7 @@
         <v>128</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G20" s="18">
         <v>69</v>
@@ -3198,19 +3200,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="D21" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>268</v>
-      </c>
       <c r="F21" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G21" s="18">
         <v>5</v>
@@ -3218,7 +3220,7 @@
       <c r="H21" s="18"/>
       <c r="I21" s="17"/>
       <c r="J21" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
@@ -3238,7 +3240,7 @@
         <v>129</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G22" s="18">
         <v>29</v>
@@ -3246,7 +3248,7 @@
       <c r="H22" s="18"/>
       <c r="I22" s="17"/>
       <c r="J22" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
@@ -3254,19 +3256,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="E23" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>263</v>
-      </c>
       <c r="F23" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G23" s="18">
         <v>20</v>
@@ -3274,7 +3276,7 @@
       <c r="H23" s="18"/>
       <c r="I23" s="17"/>
       <c r="J23" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
@@ -3294,7 +3296,7 @@
         <v>130</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G24" s="18">
         <v>37</v>
@@ -3304,7 +3306,7 @@
       </c>
       <c r="I24" s="17"/>
       <c r="J24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
@@ -3324,7 +3326,7 @@
         <v>131</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G25" s="18">
         <v>24</v>
@@ -3349,7 +3351,7 @@
         <v>132</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G26" s="18">
         <v>11</v>
@@ -3357,7 +3359,7 @@
       <c r="H26" s="18"/>
       <c r="I26" s="17"/>
       <c r="J26" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
@@ -3377,7 +3379,7 @@
         <v>133</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G27" s="18">
         <v>32</v>
@@ -3402,7 +3404,7 @@
         <v>134</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G28" s="18">
         <v>9</v>
@@ -3429,14 +3431,14 @@
         <v>135</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G29" s="18">
         <v>45</v>
       </c>
       <c r="H29" s="18"/>
       <c r="I29" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
@@ -3456,7 +3458,7 @@
         <v>136</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G30" s="18">
         <v>72</v>
@@ -3483,7 +3485,7 @@
         <v>137</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G31" s="18">
         <v>29</v>
@@ -3491,7 +3493,7 @@
       <c r="H31" s="18"/>
       <c r="I31" s="17"/>
       <c r="J31" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
@@ -3499,19 +3501,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D32" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>265</v>
-      </c>
       <c r="F32" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G32" s="18">
         <v>15</v>
@@ -3519,7 +3521,7 @@
       <c r="H32" s="18"/>
       <c r="I32" s="17"/>
       <c r="J32" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -3539,7 +3541,7 @@
         <v>138</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G33" s="18">
         <v>24</v>
@@ -3564,7 +3566,7 @@
         <v>139</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G34" s="18">
         <v>6</v>
@@ -3589,7 +3591,7 @@
         <v>229</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G35" s="18">
         <v>67</v>
@@ -3602,19 +3604,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="C36" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="D36" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="E36" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="E36" s="21" t="s">
-        <v>254</v>
-      </c>
       <c r="F36" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G36" s="18">
         <v>26</v>
@@ -3641,7 +3643,7 @@
         <v>140</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G37" s="18">
         <v>25</v>
@@ -3666,7 +3668,7 @@
         <v>141</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G38" s="18">
         <v>45</v>
@@ -3674,7 +3676,7 @@
       <c r="H38" s="18"/>
       <c r="I38" s="17"/>
       <c r="J38" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -3694,14 +3696,14 @@
         <v>142</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G39" s="18">
         <v>19</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -3709,19 +3711,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="D40" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="E40" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>272</v>
-      </c>
       <c r="F40" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G40" s="18">
         <v>7</v>
@@ -3729,7 +3731,7 @@
       <c r="H40" s="18"/>
       <c r="I40" s="17"/>
       <c r="J40" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -3749,7 +3751,7 @@
         <v>143</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G41" s="18">
         <v>42</v>
@@ -3758,10 +3760,10 @@
         <v>10</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
@@ -3781,17 +3783,17 @@
         <v>144</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G42" s="18">
         <v>29</v>
       </c>
       <c r="H42" s="18"/>
       <c r="I42" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
@@ -3811,7 +3813,7 @@
         <v>145</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G43" s="18">
         <v>25</v>
@@ -3836,7 +3838,7 @@
         <v>146</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G44" s="18">
         <v>21</v>
@@ -3861,7 +3863,7 @@
         <v>147</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G45" s="18">
         <v>43</v>
@@ -3886,7 +3888,7 @@
         <v>148</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G46" s="18">
         <v>38</v>
@@ -3911,7 +3913,7 @@
         <v>149</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G47" s="18">
         <v>23</v>
@@ -3936,14 +3938,14 @@
         <v>150</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G48" s="18">
         <v>19</v>
       </c>
       <c r="H48" s="18"/>
       <c r="I48" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
@@ -3963,17 +3965,17 @@
         <v>151</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G49" s="18">
         <v>18</v>
       </c>
       <c r="H49" s="18"/>
       <c r="I49" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
@@ -3993,7 +3995,7 @@
         <v>152</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G50" s="18">
         <v>6</v>
@@ -4002,10 +4004,10 @@
         <v>10</v>
       </c>
       <c r="I50" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
@@ -4025,7 +4027,7 @@
         <v>153</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G51" s="18">
         <v>27</v>
@@ -4034,7 +4036,7 @@
         <v>5</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
@@ -4054,17 +4056,17 @@
         <v>154</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G52" s="18">
         <v>28</v>
       </c>
       <c r="H52" s="18"/>
       <c r="I52" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
@@ -4084,7 +4086,7 @@
         <v>155</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G53" s="18">
         <v>27</v>
@@ -4093,10 +4095,10 @@
         <v>10</v>
       </c>
       <c r="I53" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -4116,7 +4118,7 @@
         <v>156</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G54" s="18">
         <v>9</v>
@@ -4125,7 +4127,7 @@
         <v>2</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4145,7 +4147,7 @@
         <v>157</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G55" s="18">
         <v>15</v>
@@ -4154,7 +4156,7 @@
         <v>5</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4174,7 +4176,7 @@
         <v>158</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G56" s="18">
         <v>53</v>
@@ -4183,7 +4185,7 @@
         <v>2</v>
       </c>
       <c r="I56" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4203,17 +4205,17 @@
         <v>159</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G57" s="18">
         <v>57</v>
       </c>
       <c r="H57" s="18"/>
       <c r="I57" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4233,7 +4235,7 @@
         <v>160</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G58" s="18">
         <v>115</v>
@@ -4242,10 +4244,10 @@
         <v>5</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
@@ -4265,14 +4267,14 @@
         <v>161</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G59" s="18">
         <v>6</v>
       </c>
       <c r="H59" s="18"/>
       <c r="I59" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
@@ -4283,7 +4285,7 @@
         <v>23</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>108</v>
@@ -4292,17 +4294,17 @@
         <v>162</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G60" s="18">
         <v>25</v>
       </c>
       <c r="H60" s="18"/>
       <c r="I60" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
@@ -4322,14 +4324,14 @@
         <v>163</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G61" s="18">
         <v>25</v>
       </c>
       <c r="H61" s="18"/>
       <c r="I61" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
@@ -4349,7 +4351,7 @@
         <v>233</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G62" s="18">
         <v>6</v>
@@ -4358,7 +4360,7 @@
         <v>10</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
@@ -4378,7 +4380,7 @@
         <v>164</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G63" s="18">
         <v>26</v>
@@ -4387,7 +4389,7 @@
         <v>2</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
@@ -4407,7 +4409,7 @@
         <v>237</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G64" s="18">
         <v>22</v>
@@ -4416,7 +4418,7 @@
         <v>2</v>
       </c>
       <c r="I64" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
@@ -4436,14 +4438,14 @@
         <v>165</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G65" s="18">
         <v>31</v>
       </c>
       <c r="H65" s="18"/>
       <c r="I65" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
@@ -4463,14 +4465,14 @@
         <v>166</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G66" s="18">
         <v>26</v>
       </c>
       <c r="H66" s="18"/>
       <c r="I66" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4490,14 +4492,14 @@
         <v>167</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G67" s="18">
         <v>39</v>
       </c>
       <c r="H67" s="18"/>
       <c r="I67" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
@@ -4517,7 +4519,7 @@
         <v>225</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G68" s="18">
         <v>38</v>
@@ -4526,7 +4528,7 @@
         <v>5</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
@@ -4546,7 +4548,7 @@
         <v>168</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G69" s="18">
         <v>26</v>
@@ -4555,10 +4557,10 @@
         <v>10</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
@@ -4578,26 +4580,26 @@
         <v>241</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G70" s="18">
         <v>31</v>
       </c>
       <c r="H70" s="18"/>
       <c r="I70" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="15"/>
       <c r="B73" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="24"/>
       <c r="B74" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
